--- a/Broad Air/36504/struct_fitoff.xlsx
+++ b/Broad Air/36504/struct_fitoff.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Broad Air\36504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59855870-D1A6-411D-B782-FCE05149B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA58416C-8118-4F81-9F44-FFF0C544E5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1320" windowWidth="28890" windowHeight="19455" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="11310" yWindow="3180" windowWidth="26775" windowHeight="17745" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">struct!$A$1:$N$301</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="224">
   <si>
     <t>resource</t>
   </si>
@@ -59,13 +62,646 @@
   </si>
   <si>
     <t>Tier 9</t>
+  </si>
+  <si>
+    <t>BUILDING-C</t>
+  </si>
+  <si>
+    <t>Level-3</t>
+  </si>
+  <si>
+    <t>C318</t>
+  </si>
+  <si>
+    <t>C319</t>
+  </si>
+  <si>
+    <t>C320</t>
+  </si>
+  <si>
+    <t>C321</t>
+  </si>
+  <si>
+    <t>C322</t>
+  </si>
+  <si>
+    <t>C323</t>
+  </si>
+  <si>
+    <t>Common Area</t>
+  </si>
+  <si>
+    <t>Level-4</t>
+  </si>
+  <si>
+    <t>C418</t>
+  </si>
+  <si>
+    <t>C419</t>
+  </si>
+  <si>
+    <t>C420</t>
+  </si>
+  <si>
+    <t>C421</t>
+  </si>
+  <si>
+    <t>C422</t>
+  </si>
+  <si>
+    <t>C423</t>
+  </si>
+  <si>
+    <t>Level-5</t>
+  </si>
+  <si>
+    <t>C518</t>
+  </si>
+  <si>
+    <t>C519</t>
+  </si>
+  <si>
+    <t>C520</t>
+  </si>
+  <si>
+    <t>C521</t>
+  </si>
+  <si>
+    <t>C522</t>
+  </si>
+  <si>
+    <t>C523</t>
+  </si>
+  <si>
+    <t>Level-6</t>
+  </si>
+  <si>
+    <t>C616</t>
+  </si>
+  <si>
+    <t>C617</t>
+  </si>
+  <si>
+    <t>C618</t>
+  </si>
+  <si>
+    <t>C619</t>
+  </si>
+  <si>
+    <t>C620</t>
+  </si>
+  <si>
+    <t>C621</t>
+  </si>
+  <si>
+    <t>Level-7</t>
+  </si>
+  <si>
+    <t>C716</t>
+  </si>
+  <si>
+    <t>C717</t>
+  </si>
+  <si>
+    <t>C718</t>
+  </si>
+  <si>
+    <t>C719</t>
+  </si>
+  <si>
+    <t>C720</t>
+  </si>
+  <si>
+    <t>C721</t>
+  </si>
+  <si>
+    <t>Level-8</t>
+  </si>
+  <si>
+    <t>C814</t>
+  </si>
+  <si>
+    <t>C815</t>
+  </si>
+  <si>
+    <t>C816</t>
+  </si>
+  <si>
+    <t>C817</t>
+  </si>
+  <si>
+    <t>C818</t>
+  </si>
+  <si>
+    <t>C819</t>
+  </si>
+  <si>
+    <t>Level-9</t>
+  </si>
+  <si>
+    <t>C914</t>
+  </si>
+  <si>
+    <t>C915</t>
+  </si>
+  <si>
+    <t>C916</t>
+  </si>
+  <si>
+    <t>C917</t>
+  </si>
+  <si>
+    <t>C918</t>
+  </si>
+  <si>
+    <t>Level-10</t>
+  </si>
+  <si>
+    <t>C1014</t>
+  </si>
+  <si>
+    <t>C1015</t>
+  </si>
+  <si>
+    <t>C1016</t>
+  </si>
+  <si>
+    <t>C1017</t>
+  </si>
+  <si>
+    <t>C1018</t>
+  </si>
+  <si>
+    <t>Level-11</t>
+  </si>
+  <si>
+    <t>C1114</t>
+  </si>
+  <si>
+    <t>C1115</t>
+  </si>
+  <si>
+    <t>C1116</t>
+  </si>
+  <si>
+    <t>C1117</t>
+  </si>
+  <si>
+    <t>C1118</t>
+  </si>
+  <si>
+    <t>Level-12</t>
+  </si>
+  <si>
+    <t>C1214</t>
+  </si>
+  <si>
+    <t>C1215</t>
+  </si>
+  <si>
+    <t>C1216</t>
+  </si>
+  <si>
+    <t>C1217</t>
+  </si>
+  <si>
+    <t>C1218</t>
+  </si>
+  <si>
+    <t>Level-13</t>
+  </si>
+  <si>
+    <t>C1314</t>
+  </si>
+  <si>
+    <t>C1315</t>
+  </si>
+  <si>
+    <t>C1316</t>
+  </si>
+  <si>
+    <t>C1317</t>
+  </si>
+  <si>
+    <t>C1318</t>
+  </si>
+  <si>
+    <t>Level-14</t>
+  </si>
+  <si>
+    <t>C1414</t>
+  </si>
+  <si>
+    <t>C1415</t>
+  </si>
+  <si>
+    <t>C1416</t>
+  </si>
+  <si>
+    <t>C1417</t>
+  </si>
+  <si>
+    <t>C1418</t>
+  </si>
+  <si>
+    <t>Level-15</t>
+  </si>
+  <si>
+    <t>C1514</t>
+  </si>
+  <si>
+    <t>C1515</t>
+  </si>
+  <si>
+    <t>C1516</t>
+  </si>
+  <si>
+    <t>C1517</t>
+  </si>
+  <si>
+    <t>C1518</t>
+  </si>
+  <si>
+    <t>Level-16</t>
+  </si>
+  <si>
+    <t>C1614</t>
+  </si>
+  <si>
+    <t>C1615</t>
+  </si>
+  <si>
+    <t>C1616</t>
+  </si>
+  <si>
+    <t>C1617</t>
+  </si>
+  <si>
+    <t>C1618</t>
+  </si>
+  <si>
+    <t>Level-17</t>
+  </si>
+  <si>
+    <t>C1712</t>
+  </si>
+  <si>
+    <t>C1713</t>
+  </si>
+  <si>
+    <t>C1714</t>
+  </si>
+  <si>
+    <t>C1715</t>
+  </si>
+  <si>
+    <t>C1716</t>
+  </si>
+  <si>
+    <t>Level-18</t>
+  </si>
+  <si>
+    <t>C1811</t>
+  </si>
+  <si>
+    <t>C1812</t>
+  </si>
+  <si>
+    <t>C1813</t>
+  </si>
+  <si>
+    <t>C1814</t>
+  </si>
+  <si>
+    <t>C1815</t>
+  </si>
+  <si>
+    <t>Level-19</t>
+  </si>
+  <si>
+    <t>C1906</t>
+  </si>
+  <si>
+    <t>C1907</t>
+  </si>
+  <si>
+    <t>C1908</t>
+  </si>
+  <si>
+    <t>C1909</t>
+  </si>
+  <si>
+    <t>C1910</t>
+  </si>
+  <si>
+    <t>Level-20</t>
+  </si>
+  <si>
+    <t>C2001</t>
+  </si>
+  <si>
+    <t>C2002</t>
+  </si>
+  <si>
+    <t>C2003</t>
+  </si>
+  <si>
+    <t>C2004</t>
+  </si>
+  <si>
+    <t>C2005</t>
+  </si>
+  <si>
+    <t>BUILDING-D</t>
+  </si>
+  <si>
+    <t>D329</t>
+  </si>
+  <si>
+    <t>D330</t>
+  </si>
+  <si>
+    <t>D331</t>
+  </si>
+  <si>
+    <t>D332</t>
+  </si>
+  <si>
+    <t>D333</t>
+  </si>
+  <si>
+    <t>D424</t>
+  </si>
+  <si>
+    <t>D425</t>
+  </si>
+  <si>
+    <t>D426</t>
+  </si>
+  <si>
+    <t>D427</t>
+  </si>
+  <si>
+    <t>D428</t>
+  </si>
+  <si>
+    <t>D524</t>
+  </si>
+  <si>
+    <t>D525</t>
+  </si>
+  <si>
+    <t>D526</t>
+  </si>
+  <si>
+    <t>D527</t>
+  </si>
+  <si>
+    <t>D528</t>
+  </si>
+  <si>
+    <t>D529</t>
+  </si>
+  <si>
+    <t>D622</t>
+  </si>
+  <si>
+    <t>D623</t>
+  </si>
+  <si>
+    <t>D624</t>
+  </si>
+  <si>
+    <t>D625</t>
+  </si>
+  <si>
+    <t>D626</t>
+  </si>
+  <si>
+    <t>D627</t>
+  </si>
+  <si>
+    <t>D722</t>
+  </si>
+  <si>
+    <t>D723</t>
+  </si>
+  <si>
+    <t>D724</t>
+  </si>
+  <si>
+    <t>D725</t>
+  </si>
+  <si>
+    <t>D726</t>
+  </si>
+  <si>
+    <t>D727</t>
+  </si>
+  <si>
+    <t>D820</t>
+  </si>
+  <si>
+    <t>D821</t>
+  </si>
+  <si>
+    <t>D822</t>
+  </si>
+  <si>
+    <t>D823</t>
+  </si>
+  <si>
+    <t>D824</t>
+  </si>
+  <si>
+    <t>D825</t>
+  </si>
+  <si>
+    <t>D919</t>
+  </si>
+  <si>
+    <t>D920</t>
+  </si>
+  <si>
+    <t>D921</t>
+  </si>
+  <si>
+    <t>D922</t>
+  </si>
+  <si>
+    <t>D923</t>
+  </si>
+  <si>
+    <t>D1019</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1021</t>
+  </si>
+  <si>
+    <t>D1022</t>
+  </si>
+  <si>
+    <t>D1023</t>
+  </si>
+  <si>
+    <t>D1119</t>
+  </si>
+  <si>
+    <t>D1120</t>
+  </si>
+  <si>
+    <t>D1121</t>
+  </si>
+  <si>
+    <t>D1122</t>
+  </si>
+  <si>
+    <t>D1123</t>
+  </si>
+  <si>
+    <t>D1219</t>
+  </si>
+  <si>
+    <t>D1220</t>
+  </si>
+  <si>
+    <t>D1221</t>
+  </si>
+  <si>
+    <t>D1222</t>
+  </si>
+  <si>
+    <t>D1223</t>
+  </si>
+  <si>
+    <t>D1319</t>
+  </si>
+  <si>
+    <t>D1320</t>
+  </si>
+  <si>
+    <t>D1321</t>
+  </si>
+  <si>
+    <t>D1322</t>
+  </si>
+  <si>
+    <t>D1323</t>
+  </si>
+  <si>
+    <t>D1419</t>
+  </si>
+  <si>
+    <t>D1420</t>
+  </si>
+  <si>
+    <t>D1421</t>
+  </si>
+  <si>
+    <t>D1422</t>
+  </si>
+  <si>
+    <t>D1423</t>
+  </si>
+  <si>
+    <t>D1519</t>
+  </si>
+  <si>
+    <t>D1520</t>
+  </si>
+  <si>
+    <t>D1521</t>
+  </si>
+  <si>
+    <t>D1522</t>
+  </si>
+  <si>
+    <t>D1523</t>
+  </si>
+  <si>
+    <t>D1619</t>
+  </si>
+  <si>
+    <t>D1620</t>
+  </si>
+  <si>
+    <t>D1621</t>
+  </si>
+  <si>
+    <t>D1622</t>
+  </si>
+  <si>
+    <t>D1623</t>
+  </si>
+  <si>
+    <t>D1717</t>
+  </si>
+  <si>
+    <t>D1718</t>
+  </si>
+  <si>
+    <t>D1719</t>
+  </si>
+  <si>
+    <t>D1720</t>
+  </si>
+  <si>
+    <t>D1721</t>
+  </si>
+  <si>
+    <t>D1816</t>
+  </si>
+  <si>
+    <t>D1817</t>
+  </si>
+  <si>
+    <t>D1818</t>
+  </si>
+  <si>
+    <t>D1819</t>
+  </si>
+  <si>
+    <t>D1820</t>
+  </si>
+  <si>
+    <t>D1911</t>
+  </si>
+  <si>
+    <t>D1912</t>
+  </si>
+  <si>
+    <t>D1913</t>
+  </si>
+  <si>
+    <t>D1914</t>
+  </si>
+  <si>
+    <t>D1915</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>Sign Off</t>
+  </si>
+  <si>
+    <t>folder-with-checklists</t>
+  </si>
+  <si>
+    <t>Apartment Fitoff Checklist [E]</t>
+  </si>
+  <si>
+    <t>Common Area Fitoff Checklist [D]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +836,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +1035,44 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76A5AF"/>
+        <bgColor rgb="FF76A5AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -497,6 +1187,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -542,8 +1258,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,54 +1650,4286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" t="s">
+        <v>221</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" t="s">
+        <v>221</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" t="s">
+        <v>221</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" t="s">
+        <v>221</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" t="s">
+        <v>221</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" t="s">
+        <v>221</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="s">
+        <v>221</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" t="s">
+        <v>221</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" t="s">
+        <v>221</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" t="s">
+        <v>221</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" t="s">
+        <v>221</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" t="s">
+        <v>221</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" t="s">
+        <v>221</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" t="s">
+        <v>221</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" t="s">
+        <v>221</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>221</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" t="s">
+        <v>221</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" t="s">
+        <v>221</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" t="s">
+        <v>221</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" t="s">
+        <v>221</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" t="s">
+        <v>221</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" t="s">
+        <v>221</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" t="s">
+        <v>221</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" t="s">
+        <v>221</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" t="s">
+        <v>221</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" t="s">
+        <v>221</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" t="s">
+        <v>221</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>221</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" t="s">
+        <v>221</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" t="s">
+        <v>221</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" t="s">
+        <v>221</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" t="s">
+        <v>221</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" t="s">
+        <v>220</v>
+      </c>
+      <c r="C97" t="s">
+        <v>221</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" t="s">
+        <v>221</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" t="s">
+        <v>221</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" t="s">
+        <v>221</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" t="s">
+        <v>221</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" t="s">
+        <v>221</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" t="s">
+        <v>221</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H107" s="2"/>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" t="s">
+        <v>221</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s">
+        <v>221</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
+        <v>221</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" t="s">
+        <v>221</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" t="s">
+        <v>221</v>
+      </c>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" t="s">
+        <v>221</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B116" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" t="s">
+        <v>221</v>
+      </c>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J116" s="2"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B117" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" t="s">
+        <v>221</v>
+      </c>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J117" s="2"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" t="s">
+        <v>220</v>
+      </c>
+      <c r="C118" t="s">
+        <v>221</v>
+      </c>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J118" s="2"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B119" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" t="s">
+        <v>221</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H121" s="2"/>
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C122" t="s">
+        <v>221</v>
+      </c>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J122" s="2"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B123" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" t="s">
+        <v>221</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J123" s="2"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B124" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" t="s">
+        <v>221</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B125" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" t="s">
+        <v>221</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" t="s">
+        <v>220</v>
+      </c>
+      <c r="C126" t="s">
+        <v>221</v>
+      </c>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J126" s="2"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127" s="2"/>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H128" s="2"/>
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" t="s">
+        <v>221</v>
+      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" t="s">
+        <v>220</v>
+      </c>
+      <c r="C130" t="s">
+        <v>221</v>
+      </c>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J130" s="2"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B131" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" t="s">
+        <v>221</v>
+      </c>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B132" t="s">
+        <v>220</v>
+      </c>
+      <c r="C132" t="s">
+        <v>221</v>
+      </c>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133" t="s">
+        <v>221</v>
+      </c>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+    </row>
+    <row r="136" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" s="2"/>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" t="s">
+        <v>220</v>
+      </c>
+      <c r="C137" t="s">
+        <v>221</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" t="s">
+        <v>220</v>
+      </c>
+      <c r="C138" t="s">
+        <v>221</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B139" t="s">
+        <v>220</v>
+      </c>
+      <c r="C139" t="s">
+        <v>221</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B140" t="s">
+        <v>220</v>
+      </c>
+      <c r="C140" t="s">
+        <v>221</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J140" s="2"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B141" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" t="s">
+        <v>221</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J141" s="2"/>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142" s="2"/>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H143" s="2"/>
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B144" t="s">
+        <v>220</v>
+      </c>
+      <c r="C144" t="s">
+        <v>221</v>
+      </c>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J144" s="2"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B145" t="s">
+        <v>220</v>
+      </c>
+      <c r="C145" t="s">
+        <v>221</v>
+      </c>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J145" s="2"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B146" t="s">
+        <v>220</v>
+      </c>
+      <c r="C146" t="s">
+        <v>221</v>
+      </c>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J146" s="2"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B147" t="s">
+        <v>220</v>
+      </c>
+      <c r="C147" t="s">
+        <v>221</v>
+      </c>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J147" s="2"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B148" t="s">
+        <v>220</v>
+      </c>
+      <c r="C148" t="s">
+        <v>221</v>
+      </c>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J148" s="2"/>
+    </row>
+    <row r="149" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J149" s="2"/>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="7"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150" s="2"/>
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B151" t="s">
+        <v>220</v>
+      </c>
+      <c r="C151" t="s">
+        <v>221</v>
+      </c>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J151" s="2"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B152" t="s">
+        <v>220</v>
+      </c>
+      <c r="C152" t="s">
+        <v>221</v>
+      </c>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J152" s="2"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B153" t="s">
+        <v>220</v>
+      </c>
+      <c r="C153" t="s">
+        <v>221</v>
+      </c>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B154" t="s">
+        <v>220</v>
+      </c>
+      <c r="C154" t="s">
+        <v>221</v>
+      </c>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J154" s="2"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" t="s">
+        <v>220</v>
+      </c>
+      <c r="C155" t="s">
+        <v>221</v>
+      </c>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B156" t="s">
+        <v>220</v>
+      </c>
+      <c r="C156" t="s">
+        <v>221</v>
+      </c>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J156" s="2"/>
+    </row>
+    <row r="157" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J157" s="2"/>
+    </row>
+    <row r="158" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H158" s="2"/>
+      <c r="J158" s="2"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B159" t="s">
+        <v>220</v>
+      </c>
+      <c r="C159" t="s">
+        <v>221</v>
+      </c>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J159" s="2"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160" t="s">
+        <v>220</v>
+      </c>
+      <c r="C160" t="s">
+        <v>221</v>
+      </c>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J160" s="2"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161" t="s">
+        <v>220</v>
+      </c>
+      <c r="C161" t="s">
+        <v>221</v>
+      </c>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" t="s">
+        <v>220</v>
+      </c>
+      <c r="C162" t="s">
+        <v>221</v>
+      </c>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" t="s">
+        <v>220</v>
+      </c>
+      <c r="C163" t="s">
+        <v>221</v>
+      </c>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J163" s="2"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164" t="s">
+        <v>220</v>
+      </c>
+      <c r="C164" t="s">
+        <v>221</v>
+      </c>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H166" s="2"/>
+      <c r="J166" s="2"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B167" t="s">
+        <v>220</v>
+      </c>
+      <c r="C167" t="s">
+        <v>221</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J167" s="2"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" t="s">
+        <v>220</v>
+      </c>
+      <c r="C168" t="s">
+        <v>221</v>
+      </c>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J168" s="2"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" t="s">
+        <v>220</v>
+      </c>
+      <c r="C169" t="s">
+        <v>221</v>
+      </c>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J169" s="2"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B170" t="s">
+        <v>220</v>
+      </c>
+      <c r="C170" t="s">
+        <v>221</v>
+      </c>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J170" s="2"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B171" t="s">
+        <v>220</v>
+      </c>
+      <c r="C171" t="s">
+        <v>221</v>
+      </c>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J171" s="2"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" t="s">
+        <v>220</v>
+      </c>
+      <c r="C172" t="s">
+        <v>221</v>
+      </c>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J172" s="2"/>
+    </row>
+    <row r="173" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J173" s="2"/>
+    </row>
+    <row r="174" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H174" s="2"/>
+      <c r="J174" s="2"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B175" t="s">
+        <v>220</v>
+      </c>
+      <c r="C175" t="s">
+        <v>221</v>
+      </c>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J175" s="2"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B176" t="s">
+        <v>220</v>
+      </c>
+      <c r="C176" t="s">
+        <v>221</v>
+      </c>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J176" s="2"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B177" t="s">
+        <v>220</v>
+      </c>
+      <c r="C177" t="s">
+        <v>221</v>
+      </c>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J177" s="2"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B178" t="s">
+        <v>220</v>
+      </c>
+      <c r="C178" t="s">
+        <v>221</v>
+      </c>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J178" s="2"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B179" t="s">
+        <v>220</v>
+      </c>
+      <c r="C179" t="s">
+        <v>221</v>
+      </c>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J179" s="2"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" t="s">
+        <v>220</v>
+      </c>
+      <c r="C180" t="s">
+        <v>221</v>
+      </c>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J180" s="2"/>
+    </row>
+    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J181" s="2"/>
+    </row>
+    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H182" s="2"/>
+      <c r="J182" s="2"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B183" t="s">
+        <v>220</v>
+      </c>
+      <c r="C183" t="s">
+        <v>221</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J183" s="2"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B184" t="s">
+        <v>220</v>
+      </c>
+      <c r="C184" t="s">
+        <v>221</v>
+      </c>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J184" s="2"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B185" t="s">
+        <v>220</v>
+      </c>
+      <c r="C185" t="s">
+        <v>221</v>
+      </c>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J185" s="2"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B186" t="s">
+        <v>220</v>
+      </c>
+      <c r="C186" t="s">
+        <v>221</v>
+      </c>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J186" s="2"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B187" t="s">
+        <v>220</v>
+      </c>
+      <c r="C187" t="s">
+        <v>221</v>
+      </c>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J187" s="2"/>
+    </row>
+    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J188" s="2"/>
+    </row>
+    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H189" s="2"/>
+      <c r="J189" s="2"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B190" t="s">
+        <v>220</v>
+      </c>
+      <c r="C190" t="s">
+        <v>221</v>
+      </c>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J190" s="2"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B191" t="s">
+        <v>220</v>
+      </c>
+      <c r="C191" t="s">
+        <v>221</v>
+      </c>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J191" s="2"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B192" t="s">
+        <v>220</v>
+      </c>
+      <c r="C192" t="s">
+        <v>221</v>
+      </c>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J192" s="2"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B193" t="s">
+        <v>220</v>
+      </c>
+      <c r="C193" t="s">
+        <v>221</v>
+      </c>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J193" s="2"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B194" t="s">
+        <v>220</v>
+      </c>
+      <c r="C194" t="s">
+        <v>221</v>
+      </c>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J194" s="2"/>
+    </row>
+    <row r="195" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J195" s="2"/>
+    </row>
+    <row r="196" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="7"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H196" s="2"/>
+      <c r="J196" s="2"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B197" t="s">
+        <v>220</v>
+      </c>
+      <c r="C197" t="s">
+        <v>221</v>
+      </c>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J197" s="2"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B198" t="s">
+        <v>220</v>
+      </c>
+      <c r="C198" t="s">
+        <v>221</v>
+      </c>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J198" s="2"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B199" t="s">
+        <v>220</v>
+      </c>
+      <c r="C199" t="s">
+        <v>221</v>
+      </c>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J199" s="2"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B200" t="s">
+        <v>220</v>
+      </c>
+      <c r="C200" t="s">
+        <v>221</v>
+      </c>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J200" s="2"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B201" t="s">
+        <v>220</v>
+      </c>
+      <c r="C201" t="s">
+        <v>221</v>
+      </c>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J201" s="2"/>
+    </row>
+    <row r="202" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J202" s="2"/>
+    </row>
+    <row r="203" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="7"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H203" s="2"/>
+      <c r="J203" s="2"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B204" t="s">
+        <v>220</v>
+      </c>
+      <c r="C204" t="s">
+        <v>221</v>
+      </c>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J204" s="2"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B205" t="s">
+        <v>220</v>
+      </c>
+      <c r="C205" t="s">
+        <v>221</v>
+      </c>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J205" s="2"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B206" t="s">
+        <v>220</v>
+      </c>
+      <c r="C206" t="s">
+        <v>221</v>
+      </c>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J206" s="2"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B207" t="s">
+        <v>220</v>
+      </c>
+      <c r="C207" t="s">
+        <v>221</v>
+      </c>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J207" s="2"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B208" t="s">
+        <v>220</v>
+      </c>
+      <c r="C208" t="s">
+        <v>221</v>
+      </c>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J208" s="2"/>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="7"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H210" s="2"/>
+      <c r="J210" s="2"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B211" t="s">
+        <v>220</v>
+      </c>
+      <c r="C211" t="s">
+        <v>221</v>
+      </c>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J211" s="2"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B212" t="s">
+        <v>220</v>
+      </c>
+      <c r="C212" t="s">
+        <v>221</v>
+      </c>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J212" s="2"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B213" t="s">
+        <v>220</v>
+      </c>
+      <c r="C213" t="s">
+        <v>221</v>
+      </c>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J213" s="2"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B214" t="s">
+        <v>220</v>
+      </c>
+      <c r="C214" t="s">
+        <v>221</v>
+      </c>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J214" s="2"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B215" t="s">
+        <v>220</v>
+      </c>
+      <c r="C215" t="s">
+        <v>221</v>
+      </c>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J215" s="2"/>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J216" s="2"/>
+    </row>
+    <row r="217" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="7"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H217" s="2"/>
+      <c r="J217" s="2"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" t="s">
+        <v>221</v>
+      </c>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J218" s="2"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" t="s">
+        <v>220</v>
+      </c>
+      <c r="C219" t="s">
+        <v>221</v>
+      </c>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J219" s="2"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220" t="s">
+        <v>220</v>
+      </c>
+      <c r="C220" t="s">
+        <v>221</v>
+      </c>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J220" s="2"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s">
+        <v>220</v>
+      </c>
+      <c r="C221" t="s">
+        <v>221</v>
+      </c>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J221" s="2"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" t="s">
+        <v>220</v>
+      </c>
+      <c r="C222" t="s">
+        <v>221</v>
+      </c>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J222" s="2"/>
+    </row>
+    <row r="223" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J223" s="2"/>
+    </row>
+    <row r="224" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="7"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H224" s="2"/>
+      <c r="J224" s="2"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B225" t="s">
+        <v>220</v>
+      </c>
+      <c r="C225" t="s">
+        <v>221</v>
+      </c>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J225" s="2"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B226" t="s">
+        <v>220</v>
+      </c>
+      <c r="C226" t="s">
+        <v>221</v>
+      </c>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J226" s="2"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B227" t="s">
+        <v>220</v>
+      </c>
+      <c r="C227" t="s">
+        <v>221</v>
+      </c>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J227" s="2"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B228" t="s">
+        <v>220</v>
+      </c>
+      <c r="C228" t="s">
+        <v>221</v>
+      </c>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J228" s="2"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B229" t="s">
+        <v>220</v>
+      </c>
+      <c r="C229" t="s">
+        <v>221</v>
+      </c>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J229" s="2"/>
+    </row>
+    <row r="230" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J230" s="2"/>
+    </row>
+    <row r="231" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="7"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H231" s="2"/>
+      <c r="J231" s="2"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B232" t="s">
+        <v>220</v>
+      </c>
+      <c r="C232" t="s">
+        <v>221</v>
+      </c>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J232" s="2"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B233" t="s">
+        <v>220</v>
+      </c>
+      <c r="C233" t="s">
+        <v>221</v>
+      </c>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J233" s="2"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B234" t="s">
+        <v>220</v>
+      </c>
+      <c r="C234" t="s">
+        <v>221</v>
+      </c>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J234" s="2"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B235" t="s">
+        <v>220</v>
+      </c>
+      <c r="C235" t="s">
+        <v>221</v>
+      </c>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J235" s="2"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B236" t="s">
+        <v>220</v>
+      </c>
+      <c r="C236" t="s">
+        <v>221</v>
+      </c>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J236" s="2"/>
+    </row>
+    <row r="237" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J237" s="2"/>
+    </row>
+    <row r="238" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="7"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H238" s="2"/>
+      <c r="J238" s="2"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B239" t="s">
+        <v>220</v>
+      </c>
+      <c r="C239" t="s">
+        <v>221</v>
+      </c>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J239" s="2"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B240" t="s">
+        <v>220</v>
+      </c>
+      <c r="C240" t="s">
+        <v>221</v>
+      </c>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J240" s="2"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B241" t="s">
+        <v>220</v>
+      </c>
+      <c r="C241" t="s">
+        <v>221</v>
+      </c>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J241" s="2"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B242" t="s">
+        <v>220</v>
+      </c>
+      <c r="C242" t="s">
+        <v>221</v>
+      </c>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J242" s="2"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B243" t="s">
+        <v>220</v>
+      </c>
+      <c r="C243" t="s">
+        <v>221</v>
+      </c>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J243" s="2"/>
+    </row>
+    <row r="244" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D244" s="9"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="10"/>
+      <c r="H244" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J244" s="2"/>
+    </row>
+    <row r="245" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="7"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H245" s="2"/>
+      <c r="J245" s="2"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B246" t="s">
+        <v>220</v>
+      </c>
+      <c r="C246" t="s">
+        <v>221</v>
+      </c>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J246" s="2"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B247" t="s">
+        <v>220</v>
+      </c>
+      <c r="C247" t="s">
+        <v>221</v>
+      </c>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J247" s="2"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B248" t="s">
+        <v>220</v>
+      </c>
+      <c r="C248" t="s">
+        <v>221</v>
+      </c>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J248" s="2"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B249" t="s">
+        <v>220</v>
+      </c>
+      <c r="C249" t="s">
+        <v>221</v>
+      </c>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J249" s="2"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B250" t="s">
+        <v>220</v>
+      </c>
+      <c r="C250" t="s">
+        <v>221</v>
+      </c>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J250" s="2"/>
+    </row>
+    <row r="251" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="9"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J251" s="2"/>
+    </row>
+    <row r="252" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="7"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H252" s="2"/>
+      <c r="J252" s="2"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B253" t="s">
+        <v>220</v>
+      </c>
+      <c r="C253" t="s">
+        <v>221</v>
+      </c>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J253" s="2"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B254" t="s">
+        <v>220</v>
+      </c>
+      <c r="C254" t="s">
+        <v>221</v>
+      </c>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J254" s="2"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B255" t="s">
+        <v>220</v>
+      </c>
+      <c r="C255" t="s">
+        <v>221</v>
+      </c>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J255" s="2"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B256" t="s">
+        <v>220</v>
+      </c>
+      <c r="C256" t="s">
+        <v>221</v>
+      </c>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J256" s="2"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B257" t="s">
+        <v>220</v>
+      </c>
+      <c r="C257" t="s">
+        <v>221</v>
+      </c>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J257" s="2"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="10"/>
+      <c r="H258" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J258" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:N301" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>